--- a/summary.xlsx
+++ b/summary.xlsx
@@ -11,7 +11,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mhl6WbJr7m1pscF1iQYWOxlHTxNqg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mjyYmySqcyRniOmgC9Ed3h9bkSy0w=="/>
     </ext>
   </extLst>
 </workbook>
@@ -1349,6 +1349,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
+    <tabColor rgb="FF93C47D"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
@@ -1676,7 +1677,7 @@
       <c r="G16" s="18">
         <v>0.61</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="19">
         <v>0.6</v>
       </c>
     </row>
@@ -1720,49 +1721,6 @@
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="A9:B9"/>
@@ -1770,12 +1728,18 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="I14:J14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="G17:H17"/>
@@ -1786,10 +1750,47 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:J8"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -97,7 +97,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.00000"/>
     <numFmt numFmtId="165" formatCode="H:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -112,6 +112,11 @@
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -176,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -225,9 +230,13 @@
     <xf borderId="0" fillId="8" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
@@ -769,16 +778,16 @@
       <c r="A16" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="20">
         <v>0.56</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="20">
         <v>0.51</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="20">
         <v>0.58</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="20">
         <v>0.54</v>
       </c>
     </row>
@@ -786,19 +795,19 @@
       <c r="A17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="21">
         <f>310.767/86400</f>
         <v>0.003596840278</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="21">
         <f>707.138/86400</f>
         <v>0.008184467593</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="21">
         <f>330.172/86400</f>
         <v>0.003821435185</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17" s="21">
         <f>746.854/86400</f>
         <v>0.008644143519</v>
       </c>
@@ -819,6 +828,9 @@
       <c r="I18" s="4" t="s">
         <v>22</v>
       </c>
+    </row>
+    <row r="22">
+      <c r="D22" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="70">
@@ -945,16 +957,16 @@
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="23">
         <v>4.0</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="23">
         <v>4.0</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="23">
         <v>4.0</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="23">
         <v>4.0</v>
       </c>
     </row>
@@ -962,16 +974,16 @@
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="23">
         <v>5.0</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="23">
         <v>5.0</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="23">
         <v>5.0</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="23">
         <v>5.0</v>
       </c>
     </row>
@@ -1000,16 +1012,16 @@
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="24">
         <v>985.0</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="24">
         <v>985.0</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="24">
         <v>985.0</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="24">
         <v>985.0</v>
       </c>
     </row>
@@ -1218,16 +1230,16 @@
       <c r="A16" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="20">
         <v>0.55</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="20">
         <v>0.35</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="20">
         <v>0.51</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="20">
         <v>0.41</v>
       </c>
     </row>
@@ -1235,19 +1247,19 @@
       <c r="A17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="21">
         <f>310.767/86400</f>
         <v>0.003596840278</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="21">
         <f>707.138/86400</f>
         <v>0.008184467593</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="21">
         <f>390.564/86400</f>
         <v>0.004520416667</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17" s="21">
         <f>746.854/86400</f>
         <v>0.008644143519</v>
       </c>
@@ -1395,16 +1407,16 @@
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="23">
         <v>2.0</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="23">
         <v>2.0</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="23">
         <v>2.0</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="23">
         <v>2.0</v>
       </c>
     </row>
@@ -1412,16 +1424,16 @@
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="23">
         <v>10.0</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="23">
         <v>10.0</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="23">
         <v>10.0</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="23">
         <v>10.0</v>
       </c>
     </row>
@@ -1450,16 +1462,16 @@
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="24">
         <v>3930.0</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="24">
         <v>3930.0</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="24">
         <v>3930.0</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="24">
         <v>3930.0</v>
       </c>
     </row>
@@ -1668,16 +1680,16 @@
       <c r="A16" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="20">
         <v>0.61</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="20">
         <v>0.58</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="20">
         <v>0.61</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="20">
         <v>0.6</v>
       </c>
     </row>
@@ -1685,19 +1697,19 @@
       <c r="A17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="21">
         <f>1354.901/86400</f>
         <v>0.01568172454</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="21">
         <f>3699.596/86400</f>
         <v>0.04281939815</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="21">
         <f>1527.958/86400</f>
         <v>0.01768469907</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17" s="21">
         <f>3846.748/86400</f>
         <v>0.0445225463</v>
       </c>
